--- a/_work/Statistik-21.xlsx
+++ b/_work/Statistik-21.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AAB54B-ED43-4CE3-819F-86CA7182B00A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7AB323-9759-4AAE-B214-659D21E5BADE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHV1_GD" sheetId="7" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="quot_m1">#REF!</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>Celi</t>
   </si>
@@ -179,6 +180,132 @@
   </si>
   <si>
     <t>6:7:w:6/10</t>
+  </si>
+  <si>
+    <t>teamS</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>isASrv</t>
+  </si>
+  <si>
+    <t>WSL - Brückl hotvolleys</t>
+  </si>
+  <si>
+    <t>L:Thery:Bojana:Vali:Alex:StefieR:Sabsi</t>
+  </si>
+  <si>
+    <t>L:Bojana:Vali:Alex:StefieR:Sabsi:Thery</t>
+  </si>
+  <si>
+    <t>l:7:6:10:15:8:22</t>
+  </si>
+  <si>
+    <t>l:6:10:15:8:22:7</t>
+  </si>
+  <si>
+    <t>l:6:10:13:9:11:7</t>
+  </si>
+  <si>
+    <t>6:12:T</t>
+  </si>
+  <si>
+    <t>9:17:T</t>
+  </si>
+  <si>
+    <t>18:13:t</t>
+  </si>
+  <si>
+    <t>14:9:w:9/6</t>
+  </si>
+  <si>
+    <t>22:16:w:6/9</t>
+  </si>
+  <si>
+    <t>22:16:w:8/12</t>
+  </si>
+  <si>
+    <t>14:9:w:12/8</t>
+  </si>
+  <si>
+    <t>6:10:t</t>
+  </si>
+  <si>
+    <t>6:16:t</t>
+  </si>
+  <si>
+    <t>3:5:w:12/6</t>
+  </si>
+  <si>
+    <t>13:22:w:6/12</t>
+  </si>
+  <si>
+    <t>13:21:w:5/15</t>
+  </si>
+  <si>
+    <t>17:24:w:15/5</t>
+  </si>
+  <si>
+    <t>6:15:w:9/8</t>
+  </si>
+  <si>
+    <t>4:9:t</t>
+  </si>
+  <si>
+    <t>10:18:t</t>
+  </si>
+  <si>
+    <t>4:11:w:9/6</t>
+  </si>
+  <si>
+    <t>4:11:w:12/8</t>
+  </si>
+  <si>
+    <t>7:14:w:5/22</t>
+  </si>
+  <si>
+    <t>10:21:w:22/5</t>
+  </si>
+  <si>
+    <t>8:17:t</t>
+  </si>
+  <si>
+    <t>9:18:w:8/6</t>
+  </si>
+  <si>
+    <t>8:14:w:22/11</t>
+  </si>
+  <si>
+    <t>10:20:w:11/22</t>
+  </si>
+  <si>
+    <t>14:20:W:LeaMe/StefieR</t>
+  </si>
+  <si>
+    <t>16:23:W:StefieR/LeaMe</t>
+  </si>
+  <si>
+    <t>21:12:W:Dragi/Vali</t>
+  </si>
+  <si>
+    <t>15:10:W:LeaMe/StefieR</t>
+  </si>
+  <si>
+    <t>18:10:W:Celi/Bojana</t>
+  </si>
+  <si>
+    <t>23:12:W:StefieM/Thery</t>
+  </si>
+  <si>
+    <t>21:11:W:Celi/Bojana</t>
+  </si>
+  <si>
+    <t>22:13:W:Celine/Thery</t>
   </si>
 </sst>
 </file>
@@ -291,7 +418,35 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Zelle überprüfen" xfId="1" builtinId="23"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -655,10 +810,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E7DBE4-F64F-4D58-971E-86C19A50F49D}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,193 +832,143 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>44100</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="6"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>44107</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
         <v>4</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W5" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y5" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA5" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC5" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD5" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE5" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF5" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M19" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N19" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" ref="O5:O19" si="2">M5 - N5</f>
-        <v>-1</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" ref="P5:P19" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>IF(AND(M5 = 0, N5 = 0), 0, IF(P5 &lt; 1, 3, IF(P5 &gt;= P$19, 1, 2)))</f>
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
@@ -872,392 +977,449 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M6:M20" si="0" xml:space="preserve"> B6 + D6 + F6 + H6 + J6</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N6:N20" si="1" xml:space="preserve"> C6 + E6 + G6 + I6 + K6</f>
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O6:O20" si="2">M6 - N6</f>
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P6:P20" si="3" xml:space="preserve"> IF(M6+N6=0, 0, IF(N6=0, "MAX", M6/N6))</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q18" si="4">IF(AND(M6 = 0, N6 = 0), 0, IF(P6 &lt; 1, 3, IF(P6 &gt;= P$19, 1, 2)))</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>5</v>
+        <f t="shared" ref="Q6:Q18" si="4">IF(AND(M6 = 0, N6 = 0), 0, IF(P6 &lt; 1, 3, IF(P6 &gt;= P$20, 1, 2)))</f>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>5</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="AD6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="AE6" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <v>1</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M12" si="5" xml:space="preserve"> B7 + D7 + F7 + H7 + J7</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N12" si="6" xml:space="preserve"> C7 + E7 + G7 + I7 + K7</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:O12" si="7">M7 - N7</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" ref="P7:P12" si="8" xml:space="preserve"> IF(M7+N7=0, 0, IF(N7=0, "MAX", M7/N7))</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AD7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AE7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="X8">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
       </c>
       <c r="AC8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AD8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="AE8" t="s">
-        <v>49</v>
+        <v>75</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="7"/>
-        <v>-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9">
         <v>5</v>
       </c>
-      <c r="U9">
-        <v>9</v>
-      </c>
-      <c r="V9">
-        <v>9</v>
-      </c>
       <c r="W9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="X9">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
       </c>
       <c r="AC9" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="AE9" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
       <c r="O10" s="1">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>-5</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="8"/>
-        <v>2.8</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="T10">
+        <v>14</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+      <c r="V10">
         <v>6</v>
       </c>
-      <c r="U10">
-        <v>18</v>
-      </c>
-      <c r="V10">
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
         <v>10</v>
       </c>
-      <c r="W10">
-        <v>16</v>
-      </c>
-      <c r="X10">
-        <v>11</v>
+      <c r="Z10">
+        <v>6</v>
       </c>
       <c r="AC10" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="AD10" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="s">
-        <v>47</v>
+        <v>77</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="N11">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
+        <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
         <v>18</v>
       </c>
-      <c r="T11">
+      <c r="U11">
+        <v>18</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>11</v>
+      </c>
+      <c r="Z11">
         <v>7</v>
       </c>
-      <c r="U11">
-        <v>20</v>
-      </c>
-      <c r="V11">
-        <v>13</v>
-      </c>
-      <c r="W11">
-        <v>17</v>
-      </c>
-      <c r="X11">
-        <v>13</v>
+      <c r="AC11" t="s">
+        <v>85</v>
       </c>
       <c r="AD11" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s">
-        <v>46</v>
+        <v>78</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1266,59 +1428,83 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="N12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S12">
+        <v>14</v>
+      </c>
+      <c r="T12">
         <v>21</v>
       </c>
-      <c r="T12">
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>13</v>
+      </c>
+      <c r="X12">
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <v>17</v>
+      </c>
+      <c r="Z12">
         <v>8</v>
       </c>
-      <c r="U12">
-        <v>21</v>
-      </c>
-      <c r="V12">
-        <v>14</v>
-      </c>
-      <c r="W12">
-        <v>18</v>
-      </c>
-      <c r="X12">
-        <v>15</v>
+      <c r="AC12" t="s">
+        <v>86</v>
       </c>
       <c r="AD12" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s">
-        <v>45</v>
+        <v>79</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
@@ -1341,31 +1527,61 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>14</v>
+      </c>
+      <c r="T13">
         <v>22</v>
       </c>
-      <c r="T13">
+      <c r="U13">
+        <v>21</v>
+      </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <v>15</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>18</v>
+      </c>
+      <c r="Z13">
         <v>9</v>
       </c>
-      <c r="U13">
-        <v>23</v>
-      </c>
-      <c r="V13">
-        <v>15</v>
-      </c>
-      <c r="W13">
-        <v>21</v>
-      </c>
-      <c r="X13">
-        <v>17</v>
+      <c r="AC13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
@@ -1373,38 +1589,62 @@
       </c>
       <c r="O14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+        <v>2</v>
+      </c>
+      <c r="P14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>MAX</v>
       </c>
       <c r="Q14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="T14">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X14">
+        <v>12</v>
+      </c>
+      <c r="Y14">
         <v>20</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
@@ -1426,203 +1666,1329 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15">
-        <v>25</v>
-      </c>
       <c r="U15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X15">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="Y15">
+        <v>21</v>
+      </c>
+      <c r="Z15">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="3"/>
-        <v>0.72727272727272729</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>24</v>
+      </c>
+      <c r="V16">
+        <v>16</v>
       </c>
       <c r="W16">
+        <v>25</v>
+      </c>
+      <c r="Y16">
         <v>24</v>
       </c>
-      <c r="X16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Q17">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="U17">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>17</v>
+      </c>
+      <c r="Y17">
+        <v>25</v>
+      </c>
+      <c r="Z17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q19">
+        <f>IF(AND(M19 = 0, N19 = 0), 0, IF(P19 &lt; 1, 3, IF(P19 &gt;= P$20, 1, 2)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
         <v>25</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D20" s="4">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4">
+        <v>25</v>
+      </c>
+      <c r="I20" s="4">
+        <v>14</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="3"/>
+        <v>1.318840579710145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>44100</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M39" si="5" xml:space="preserve"> B25 + D25 + F25 + H25 + J25</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N39" si="6" xml:space="preserve"> C25 + E25 + G25 + I25 + K25</f>
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" ref="O25:O39" si="7">M25 - N25</f>
+        <v>-1</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" ref="P25:P39" si="8" xml:space="preserve"> IF(M25+N25=0, 0, IF(N25=0, "MAX", M25/N25))</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>IF(AND(M25 = 0, N25 = 0), 0, IF(P25 &lt; 1, 3, IF(P25 &gt;= P$39, 1, 2)))</f>
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q38" si="9">IF(AND(M26 = 0, N26 = 0), 0, IF(P26 &lt; 1, 3, IF(P26 &gt;= P$39, 1, 2)))</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M32" si="10" xml:space="preserve"> B27 + D27 + F27 + H27 + J27</f>
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N32" si="11" xml:space="preserve"> C27 + E27 + G27 + I27 + K27</f>
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ref="O27:O32" si="12">M27 - N27</f>
+        <v>2</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" ref="P27:P32" si="13" xml:space="preserve"> IF(M27+N27=0, 0, IF(N27=0, "MAX", M27/N27))</f>
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>7</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>5</v>
+      </c>
+      <c r="V27">
+        <v>6</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>5</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>8</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>7</v>
+      </c>
+      <c r="V28">
+        <v>7</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>6</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>16</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>9</v>
+      </c>
+      <c r="V29">
+        <v>9</v>
+      </c>
+      <c r="W29">
+        <v>14</v>
+      </c>
+      <c r="X29">
+        <v>9</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="13"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>17</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>18</v>
+      </c>
+      <c r="V30">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>16</v>
+      </c>
+      <c r="X30">
         <v>11</v>
       </c>
-      <c r="D19" s="4">
+      <c r="AC30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="13"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>18</v>
+      </c>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>13</v>
+      </c>
+      <c r="W31">
+        <v>17</v>
+      </c>
+      <c r="X31">
+        <v>13</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>21</v>
+      </c>
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <v>21</v>
+      </c>
+      <c r="V32">
+        <v>14</v>
+      </c>
+      <c r="W32">
+        <v>18</v>
+      </c>
+      <c r="X32">
+        <v>15</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>22</v>
+      </c>
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <v>23</v>
+      </c>
+      <c r="V33">
+        <v>15</v>
+      </c>
+      <c r="W33">
+        <v>21</v>
+      </c>
+      <c r="X33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>23</v>
+      </c>
+      <c r="T34">
+        <v>11</v>
+      </c>
+      <c r="U34">
+        <v>24</v>
+      </c>
+      <c r="V34">
+        <v>17</v>
+      </c>
+      <c r="W34">
+        <v>22</v>
+      </c>
+      <c r="X34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>25</v>
       </c>
-      <c r="E19" s="4">
+      <c r="U35">
+        <v>25</v>
+      </c>
+      <c r="V35">
         <v>18</v>
       </c>
-      <c r="F19" s="4">
+      <c r="W35">
+        <v>23</v>
+      </c>
+      <c r="X35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="8"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>24</v>
+      </c>
+      <c r="X36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W37">
         <v>25</v>
       </c>
-      <c r="G19" s="4">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4">
+        <v>25</v>
+      </c>
+      <c r="C39" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4">
+        <v>25</v>
+      </c>
+      <c r="E39" s="4">
+        <v>18</v>
+      </c>
+      <c r="F39" s="4">
+        <v>25</v>
+      </c>
+      <c r="G39" s="4">
         <v>23</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
-        <f t="shared" si="0"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="N19" s="4">
-        <f t="shared" si="1"/>
+      <c r="N39" s="4">
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="O19" s="4">
-        <f t="shared" si="2"/>
+      <c r="O39" s="4">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="P19" s="5">
-        <f t="shared" si="3"/>
+      <c r="P39" s="5">
+        <f t="shared" si="8"/>
         <v>1.4423076923076923</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P20" s="2"/>
+    <row r="40" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:P18">
+  <conditionalFormatting sqref="A25:P38">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$Q25 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="36">
+      <formula>$Q25 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="37">
+      <formula>$Q25 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="38">
+      <formula>$Q25 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:P19">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$Q5 = 0</formula>
+      <formula>$Q6 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
-      <formula>$Q5 = 3</formula>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="33">
-      <formula>$Q5 = 2</formula>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="34">
-      <formula>$Q5 = 1</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11216915-10ED-4370-BD94-C6E802C5D48A}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="b">
+        <f>_xlfn.XOR(TRUE, TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="b">
+        <f>_xlfn.XOR(TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="b">
+        <f>_xlfn.XOR(FALSE, TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="b">
+        <f>_xlfn.XOR(FALSE, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_work/Statistik-21.xlsx
+++ b/_work/Statistik-21.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7AB323-9759-4AAE-B214-659D21E5BADE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A7C9E7-8983-4B9E-905A-B3C21A838EB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31170" yWindow="1545" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHV1_GD" sheetId="7" r:id="rId1"/>
@@ -305,7 +305,7 @@
     <t>21:11:W:Celi/Bojana</t>
   </si>
   <si>
-    <t>22:13:W:Celine/Thery</t>
+    <t>23:11:W:Celine/Thery</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T13">
         <v>22</v>
@@ -1679,7 +1679,7 @@
         <v>13</v>
       </c>
       <c r="Y15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z15">
         <v>11</v>

--- a/_work/Statistik-21.xlsx
+++ b/_work/Statistik-21.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A7C9E7-8983-4B9E-905A-B3C21A838EB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81454E2-D377-4868-B01C-54CC97741AD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31170" yWindow="1545" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHV1_GD" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="111">
   <si>
     <t>Celi</t>
   </si>
@@ -306,6 +306,60 @@
   </si>
   <si>
     <t>23:11:W:Celine/Thery</t>
+  </si>
+  <si>
+    <t>l:14:8:10:11:17:7</t>
+  </si>
+  <si>
+    <t>l:14:8:10:19:17:7</t>
+  </si>
+  <si>
+    <t>l:7:14:8:10:19:17</t>
+  </si>
+  <si>
+    <t>21:17:T</t>
+  </si>
+  <si>
+    <t>14:19:t</t>
+  </si>
+  <si>
+    <t>9:14:t</t>
+  </si>
+  <si>
+    <t>12:10:T</t>
+  </si>
+  <si>
+    <t>10:16:t</t>
+  </si>
+  <si>
+    <t>15:21:t</t>
+  </si>
+  <si>
+    <t>5:10:w:2/8</t>
+  </si>
+  <si>
+    <t>15:22:w:8/2</t>
+  </si>
+  <si>
+    <t>14:21:w:19/11</t>
+  </si>
+  <si>
+    <t>5:8:t</t>
+  </si>
+  <si>
+    <t>14:20:t</t>
+  </si>
+  <si>
+    <t>20:18:T</t>
+  </si>
+  <si>
+    <t>20:16:W:LeaMe/StefieR</t>
+  </si>
+  <si>
+    <t>20:19:W:StefieR/LeaMe</t>
+  </si>
+  <si>
+    <t>Brückl hotvolleys - Jennersdorf</t>
   </si>
 </sst>
 </file>
@@ -810,10 +864,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E7DBE4-F64F-4D58-971E-86C19A50F49D}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,214 +887,272 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>44107</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
+    <row r="2" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>44114</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="W4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="Y4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="AA4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="6"/>
+      <c r="AC4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M15" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N15" si="1" xml:space="preserve"> C5 + E5 + G5 + I5 + K5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O15" si="2">M5 - N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P15" si="3" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>IF(AND(M5 = 0, N5 = 0), 0, IF(P5 &lt; 1, 3, IF(P5 &gt;= P$39, 1, 2)))</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="AD5" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="AE5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M20" si="0" xml:space="preserve"> B6 + D6 + F6 + H6 + J6</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N20" si="1" xml:space="preserve"> C6 + E6 + G6 + I6 + K6</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:O20" si="2">M6 - N6</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P20" si="3" xml:space="preserve"> IF(M6+N6=0, 0, IF(N6=0, "MAX", M6/N6))</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.6666666666666665</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q18" si="4">IF(AND(M6 = 0, N6 = 0), 0, IF(P6 &lt; 1, 3, IF(P6 &gt;= P$20, 1, 2)))</f>
-        <v>0</v>
+        <f>IF(AND(M6 = 0, N6 = 0), 0, IF(P6 &lt; 1, 3, IF(P6 &gt;= P$39, 1, 2)))</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AD6" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AE6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
@@ -1048,145 +1160,139 @@
       </c>
       <c r="O7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>IF(AND(M7 = 0, N7 = 0), 0, IF(P7 &lt; 1, 3, IF(P7 &gt;= P$39, 1, 2)))</f>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7">
         <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="AD7" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="AE7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
         <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>IF(AND(M8 = 0, N8 = 0), 0, IF(P8 &lt; 1, 3, IF(P8 &gt;= P$39, 1, 2)))</f>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
         <v>6</v>
       </c>
-      <c r="U8">
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
         <v>7</v>
       </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
       <c r="X8">
-        <v>2</v>
-      </c>
-      <c r="Y8">
-        <v>4</v>
-      </c>
-      <c r="Z8">
         <v>3</v>
       </c>
       <c r="AC8" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="AD8" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="AE8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
@@ -1194,80 +1300,47 @@
       </c>
       <c r="O9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>MAX</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(AND(M9 = 0, N9 = 0), 0, IF(P9 &lt; 1, 3, IF(P9 &gt;= P$39, 1, 2)))</f>
+        <v>1</v>
       </c>
       <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9">
         <v>4</v>
       </c>
-      <c r="T9">
-        <v>7</v>
-      </c>
-      <c r="U9">
-        <v>8</v>
-      </c>
-      <c r="V9">
+      <c r="W9">
+        <v>9</v>
+      </c>
+      <c r="X9">
         <v>5</v>
       </c>
-      <c r="W9">
-        <v>4</v>
-      </c>
-      <c r="X9">
-        <v>3</v>
-      </c>
-      <c r="Y9">
-        <v>6</v>
-      </c>
-      <c r="Z9">
-        <v>4</v>
-      </c>
       <c r="AC9" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AD9" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AE9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
@@ -1275,230 +1348,182 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>IF(AND(M10 = 0, N10 = 0), 0, IF(P10 &lt; 1, 3, IF(P10 &gt;= P$39, 1, 2)))</f>
+        <v>0</v>
       </c>
       <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
         <v>6</v>
       </c>
-      <c r="T10">
-        <v>14</v>
-      </c>
-      <c r="U10">
-        <v>16</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
-      </c>
-      <c r="W10">
-        <v>6</v>
-      </c>
-      <c r="X10">
-        <v>4</v>
-      </c>
-      <c r="Y10">
-        <v>10</v>
-      </c>
-      <c r="Z10">
-        <v>6</v>
-      </c>
       <c r="AC10" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AD10" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="AE10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
         <v>1</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(AND(M11 = 0, N11 = 0), 0, IF(P11 &lt; 1, 3, IF(P11 &gt;= P$39, 1, 2)))</f>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T11">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X11">
-        <v>5</v>
-      </c>
-      <c r="Y11">
-        <v>11</v>
-      </c>
-      <c r="Z11">
         <v>7</v>
       </c>
-      <c r="AC11" t="s">
-        <v>85</v>
-      </c>
       <c r="AD11" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AE11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f>IF(AND(M12 = 0, N12 = 0), 0, IF(P12 &lt; 1, 3, IF(P12 &gt;= P$39, 1, 2)))</f>
         <v>1</v>
       </c>
       <c r="S12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T12">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="U12">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12">
         <v>10</v>
       </c>
-      <c r="W12">
-        <v>13</v>
-      </c>
-      <c r="X12">
-        <v>7</v>
-      </c>
-      <c r="Y12">
-        <v>17</v>
-      </c>
-      <c r="Z12">
-        <v>8</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>86</v>
-      </c>
       <c r="AD12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1508,7 +1533,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
@@ -1516,444 +1541,256 @@
       </c>
       <c r="O13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>MAX</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(AND(M13 = 0, N13 = 0), 0, IF(P13 &lt; 1, 3, IF(P13 &gt;= P$39, 1, 2)))</f>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="U13">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="V13">
+        <v>8</v>
+      </c>
+      <c r="W13">
+        <v>16</v>
+      </c>
+      <c r="X13">
         <v>12</v>
-      </c>
-      <c r="W13">
-        <v>15</v>
-      </c>
-      <c r="X13">
-        <v>10</v>
-      </c>
-      <c r="Y13">
-        <v>18</v>
-      </c>
-      <c r="Z13">
-        <v>9</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="P14" s="3" t="str">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>2</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f>IF(AND(M14 = 0, N14 = 0), 0, IF(P14 &lt; 1, 3, IF(P14 &gt;= P$39, 1, 2)))</f>
         <v>1</v>
       </c>
       <c r="S14">
+        <v>17</v>
+      </c>
+      <c r="T14">
+        <v>13</v>
+      </c>
+      <c r="U14">
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>18</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="S15">
+        <v>18</v>
+      </c>
+      <c r="T15">
+        <v>14</v>
+      </c>
+      <c r="U15">
         <v>16</v>
       </c>
-      <c r="T14">
+      <c r="V15">
+        <v>11</v>
+      </c>
+      <c r="W15">
+        <v>20</v>
+      </c>
+      <c r="X15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>21</v>
+      </c>
+      <c r="T16">
+        <v>17</v>
+      </c>
+      <c r="U16">
+        <v>17</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>23</v>
+      </c>
+      <c r="X16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>22</v>
+      </c>
+      <c r="T17">
+        <v>18</v>
+      </c>
+      <c r="U17">
+        <v>18</v>
+      </c>
+      <c r="V17">
+        <v>13</v>
+      </c>
+      <c r="W17">
         <v>25</v>
       </c>
-      <c r="U14">
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18">
+        <v>23</v>
+      </c>
+      <c r="T18">
+        <v>19</v>
+      </c>
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19">
+        <v>24</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
         <v>22</v>
       </c>
-      <c r="V14">
-        <v>13</v>
-      </c>
-      <c r="W14">
-        <v>21</v>
-      </c>
-      <c r="X14">
-        <v>12</v>
-      </c>
-      <c r="Y14">
+      <c r="V19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>25</v>
+      </c>
+      <c r="U20">
+        <v>25</v>
+      </c>
+      <c r="V20">
         <v>20</v>
       </c>
-      <c r="Z14">
-        <v>10</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>23</v>
-      </c>
-      <c r="V15">
-        <v>15</v>
-      </c>
-      <c r="W15">
-        <v>24</v>
-      </c>
-      <c r="X15">
-        <v>13</v>
-      </c>
-      <c r="Y15">
-        <v>23</v>
-      </c>
-      <c r="Z15">
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="AC15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>24</v>
-      </c>
-      <c r="V16">
-        <v>16</v>
-      </c>
-      <c r="W16">
-        <v>25</v>
-      </c>
-      <c r="Y16">
-        <v>24</v>
-      </c>
-      <c r="Z16">
-        <v>13</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>25</v>
-      </c>
-      <c r="V17">
-        <v>17</v>
-      </c>
-      <c r="Y17">
-        <v>25</v>
-      </c>
-      <c r="Z17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="Q19">
-        <f>IF(AND(M19 = 0, N19 = 0), 0, IF(P19 &lt; 1, 3, IF(P19 &gt;= P$20, 1, 2)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4">
-        <v>25</v>
-      </c>
-      <c r="D20" s="4">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4">
-        <v>17</v>
-      </c>
-      <c r="F20" s="4">
-        <v>25</v>
-      </c>
-      <c r="G20" s="4">
-        <v>13</v>
-      </c>
-      <c r="H20" s="4">
-        <v>25</v>
-      </c>
-      <c r="I20" s="4">
-        <v>14</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="P20" s="5">
-        <f t="shared" si="3"/>
-        <v>1.318840579710145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2080,113 +1917,128 @@
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M39" si="5" xml:space="preserve"> B25 + D25 + F25 + H25 + J25</f>
+        <f t="shared" ref="M25:M39" si="4" xml:space="preserve"> B25 + D25 + F25 + H25 + J25</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N39" si="6" xml:space="preserve"> C25 + E25 + G25 + I25 + K25</f>
-        <v>1</v>
+        <f t="shared" ref="N25:N39" si="5" xml:space="preserve"> C25 + E25 + G25 + I25 + K25</f>
+        <v>0</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" ref="O25:O39" si="7">M25 - N25</f>
-        <v>-1</v>
+        <f t="shared" ref="O25:O39" si="6">M25 - N25</f>
+        <v>0</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" ref="P25:P39" si="8" xml:space="preserve"> IF(M25+N25=0, 0, IF(N25=0, "MAX", M25/N25))</f>
+        <f t="shared" ref="P25:P39" si="7" xml:space="preserve"> IF(M25+N25=0, 0, IF(N25=0, "MAX", M25/N25))</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>IF(AND(M25 = 0, N25 = 0), 0, IF(P25 &lt; 1, 3, IF(P25 &gt;= P$39, 1, 2)))</f>
-        <v>3</v>
+        <f t="shared" ref="Q25:Q37" si="8">IF(AND(M25 = 0, N25 = 0), 0, IF(P25 &lt; 1, 3, IF(P25 &gt;= P$39, 1, 2)))</f>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
       </c>
       <c r="AC25" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="AD25" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="AE25" t="s">
-        <v>31</v>
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="M26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" ref="Q26:Q38" si="9">IF(AND(M26 = 0, N26 = 0), 0, IF(P26 &lt; 1, 3, IF(P26 &gt;= P$39, 1, 2)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>1</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
       </c>
       <c r="AC26" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="AD26" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="AE26" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -2194,69 +2046,84 @@
         <v>22</v>
       </c>
       <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ref="M27:M32" si="10" xml:space="preserve"> B27 + D27 + F27 + H27 + J27</f>
+      <c r="N27">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N27">
-        <f t="shared" ref="N27:N32" si="11" xml:space="preserve"> C27 + E27 + G27 + I27 + K27</f>
-        <v>2</v>
-      </c>
       <c r="O27" s="1">
-        <f t="shared" ref="O27:O32" si="12">M27 - N27</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" ref="P27:P32" si="13" xml:space="preserve"> IF(M27+N27=0, 0, IF(N27=0, "MAX", M27/N27))</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
         <v>7</v>
       </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27">
-        <v>5</v>
-      </c>
       <c r="V27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X27">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
       </c>
       <c r="AC27" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="AD27" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AE27" t="s">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -2264,51 +2131,60 @@
         <v>29</v>
       </c>
       <c r="M28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>7</v>
+      </c>
+      <c r="U28">
         <v>8</v>
       </c>
-      <c r="T28">
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
         <v>4</v>
       </c>
-      <c r="U28">
-        <v>7</v>
-      </c>
-      <c r="V28">
-        <v>7</v>
-      </c>
-      <c r="W28">
-        <v>3</v>
-      </c>
       <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
         <v>6</v>
       </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
       <c r="AC28" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="AD28" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="AE28" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -2319,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2331,54 +2207,69 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="12"/>
-        <v>-2</v>
+        <f t="shared" si="6"/>
+        <v>-5</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>14</v>
+      </c>
+      <c r="U29">
         <v>16</v>
       </c>
-      <c r="T29">
-        <v>5</v>
-      </c>
-      <c r="U29">
-        <v>9</v>
-      </c>
       <c r="V29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W29">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="X29">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="Y29">
+        <v>10</v>
+      </c>
+      <c r="Z29">
+        <v>6</v>
       </c>
       <c r="AC29" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AE29" t="s">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -2386,69 +2277,84 @@
         <v>20</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <v>4</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
+      <c r="I30">
+        <v>1</v>
       </c>
       <c r="M30">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="N30">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S30">
         <v>9</v>
       </c>
-      <c r="P30" s="3">
-        <f t="shared" si="13"/>
-        <v>2.8</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S30">
-        <v>17</v>
-      </c>
       <c r="T30">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U30">
         <v>18</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X30">
+        <v>5</v>
+      </c>
+      <c r="Y30">
         <v>11</v>
       </c>
+      <c r="Z30">
+        <v>7</v>
+      </c>
       <c r="AC30" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AD30" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="AE30" t="s">
-        <v>47</v>
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -2456,453 +2362,1493 @@
         <v>23</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="N31">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333335</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S31">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="T31">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="U31">
         <v>20</v>
       </c>
       <c r="V31">
+        <v>10</v>
+      </c>
+      <c r="W31">
         <v>13</v>
       </c>
-      <c r="W31">
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="Y31">
         <v>17</v>
       </c>
-      <c r="X31">
-        <v>13</v>
+      <c r="Z31">
+        <v>8</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>86</v>
       </c>
       <c r="AD31" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AE31" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="T32">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="U32">
         <v>21</v>
       </c>
       <c r="V32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W32">
+        <v>15</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
         <v>18</v>
       </c>
-      <c r="X32">
-        <v>15</v>
+      <c r="Z32">
+        <v>9</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>64</v>
       </c>
       <c r="AD32" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
       <c r="M33">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N33">
+      <c r="O33" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+      <c r="P33" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+        <v>MAX</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
+        <v>16</v>
+      </c>
+      <c r="T33">
+        <v>25</v>
+      </c>
+      <c r="U33">
         <v>22</v>
       </c>
-      <c r="T33">
-        <v>9</v>
-      </c>
-      <c r="U33">
-        <v>23</v>
-      </c>
       <c r="V33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W33">
         <v>21</v>
       </c>
       <c r="X33">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Y33">
+        <v>20</v>
+      </c>
+      <c r="Z33">
+        <v>10</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
       <c r="M34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N34">
+      <c r="O34" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P34" s="3">
+      <c r="Q34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
+      <c r="U34">
         <v>23</v>
       </c>
-      <c r="T34">
+      <c r="V34">
+        <v>15</v>
+      </c>
+      <c r="W34">
+        <v>24</v>
+      </c>
+      <c r="X34">
+        <v>13</v>
+      </c>
+      <c r="Y34">
+        <v>23</v>
+      </c>
+      <c r="Z34">
         <v>11</v>
       </c>
-      <c r="U34">
-        <v>24</v>
-      </c>
-      <c r="V34">
-        <v>17</v>
-      </c>
-      <c r="W34">
-        <v>22</v>
-      </c>
-      <c r="X34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35">
+      <c r="O35" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S35">
+      <c r="U35">
+        <v>24</v>
+      </c>
+      <c r="V35">
+        <v>16</v>
+      </c>
+      <c r="W35">
         <v>25</v>
       </c>
-      <c r="U35">
-        <v>25</v>
-      </c>
-      <c r="V35">
-        <v>18</v>
-      </c>
-      <c r="W35">
-        <v>23</v>
-      </c>
-      <c r="X35">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <v>24</v>
+      </c>
+      <c r="Z35">
+        <v>13</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
       </c>
       <c r="M36">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36" s="1">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="O36" s="1">
+        <v>2</v>
+      </c>
+      <c r="P36" s="3">
         <f t="shared" si="7"/>
-        <v>-3</v>
-      </c>
-      <c r="P36" s="3">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="8"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="W36">
-        <v>24</v>
-      </c>
-      <c r="X36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>25</v>
+      </c>
+      <c r="V36">
+        <v>17</v>
+      </c>
+      <c r="Y36">
+        <v>25</v>
+      </c>
+      <c r="Z36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
       <c r="M37">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N37">
+      <c r="O37" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="O37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="W37">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
       <c r="M38">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
+        <v>5</v>
+      </c>
+      <c r="P38" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+        <f>IF(AND(M38 = 0, N38 = 0), 0, IF(P38 &lt; 1, 3, IF(P38 &gt;= P$39, 1, 2)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4">
         <v>25</v>
-      </c>
-      <c r="C39" s="4">
-        <v>11</v>
       </c>
       <c r="D39" s="4">
         <v>25</v>
       </c>
       <c r="E39" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="4">
         <v>25</v>
       </c>
       <c r="G39" s="4">
-        <v>23</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H39" s="4">
+        <v>25</v>
+      </c>
+      <c r="I39" s="4">
+        <v>14</v>
+      </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="N39" s="4">
         <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="7"/>
+        <v>1.318840579710145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>44100</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ref="M44:M58" si="9" xml:space="preserve"> B44 + D44 + F44 + H44 + J44</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ref="N44:N58" si="10" xml:space="preserve"> C44 + E44 + G44 + I44 + K44</f>
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" ref="O44:O58" si="11">M44 - N44</f>
+        <v>-1</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" ref="P44:P58" si="12" xml:space="preserve"> IF(M44+N44=0, 0, IF(N44=0, "MAX", M44/N44))</f>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f>IF(AND(M44 = 0, N44 = 0), 0, IF(P44 &lt; 1, 3, IF(P44 &gt;= P$58, 1, 2)))</f>
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ref="Q45:Q57" si="13">IF(AND(M45 = 0, N45 = 0), 0, IF(P45 &lt; 1, 3, IF(P45 &gt;= P$58, 1, 2)))</f>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46:M51" si="14" xml:space="preserve"> B46 + D46 + F46 + H46 + J46</f>
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46:N51" si="15" xml:space="preserve"> C46 + E46 + G46 + I46 + K46</f>
+        <v>2</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" ref="O46:O51" si="16">M46 - N46</f>
+        <v>2</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" ref="P46:P51" si="17" xml:space="preserve"> IF(M46+N46=0, 0, IF(N46=0, "MAX", M46/N46))</f>
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>7</v>
+      </c>
+      <c r="T46">
+        <v>2</v>
+      </c>
+      <c r="U46">
+        <v>5</v>
+      </c>
+      <c r="V46">
+        <v>6</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <v>5</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>7</v>
+      </c>
+      <c r="V47">
+        <v>7</v>
+      </c>
+      <c r="W47">
+        <v>3</v>
+      </c>
+      <c r="X47">
+        <v>6</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>16</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+      <c r="U48">
+        <v>9</v>
+      </c>
+      <c r="V48">
+        <v>9</v>
+      </c>
+      <c r="W48">
+        <v>14</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="17"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>17</v>
+      </c>
+      <c r="T49">
+        <v>6</v>
+      </c>
+      <c r="U49">
+        <v>18</v>
+      </c>
+      <c r="V49">
+        <v>10</v>
+      </c>
+      <c r="W49">
+        <v>16</v>
+      </c>
+      <c r="X49">
+        <v>11</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>18</v>
+      </c>
+      <c r="T50">
+        <v>7</v>
+      </c>
+      <c r="U50">
+        <v>20</v>
+      </c>
+      <c r="V50">
+        <v>13</v>
+      </c>
+      <c r="W50">
+        <v>17</v>
+      </c>
+      <c r="X50">
+        <v>13</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>21</v>
+      </c>
+      <c r="T51">
+        <v>8</v>
+      </c>
+      <c r="U51">
+        <v>21</v>
+      </c>
+      <c r="V51">
+        <v>14</v>
+      </c>
+      <c r="W51">
+        <v>18</v>
+      </c>
+      <c r="X51">
+        <v>15</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>22</v>
+      </c>
+      <c r="T52">
+        <v>9</v>
+      </c>
+      <c r="U52">
+        <v>23</v>
+      </c>
+      <c r="V52">
+        <v>15</v>
+      </c>
+      <c r="W52">
+        <v>21</v>
+      </c>
+      <c r="X52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>23</v>
+      </c>
+      <c r="T53">
+        <v>11</v>
+      </c>
+      <c r="U53">
+        <v>24</v>
+      </c>
+      <c r="V53">
+        <v>17</v>
+      </c>
+      <c r="W53">
+        <v>22</v>
+      </c>
+      <c r="X53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>25</v>
+      </c>
+      <c r="U54">
+        <v>25</v>
+      </c>
+      <c r="V54">
+        <v>18</v>
+      </c>
+      <c r="W54">
+        <v>23</v>
+      </c>
+      <c r="X54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="12"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>24</v>
+      </c>
+      <c r="X55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="W56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4">
+        <v>25</v>
+      </c>
+      <c r="C58" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" s="4">
+        <v>25</v>
+      </c>
+      <c r="E58" s="4">
+        <v>18</v>
+      </c>
+      <c r="F58" s="4">
+        <v>25</v>
+      </c>
+      <c r="G58" s="4">
+        <v>23</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4">
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="N39" s="4">
-        <f t="shared" si="6"/>
+      <c r="N58" s="4">
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="O39" s="4">
-        <f t="shared" si="7"/>
+      <c r="O58" s="4">
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="P39" s="5">
-        <f t="shared" si="8"/>
+      <c r="P58" s="5">
+        <f t="shared" si="12"/>
         <v>1.4423076923076923</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P40" s="2"/>
+    <row r="59" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A44:P57 A5:P14">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$Q5 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="40">
+      <formula>$Q5 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="41">
+      <formula>$Q5 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="42">
+      <formula>$Q5 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A25:P38">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$Q25 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="37">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="38">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$Q25 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:P19">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$Q6 = 0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$Q6 = 3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$Q6 = 2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_work/Statistik-21.xlsx
+++ b/_work/Statistik-21.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB894D17-0B33-4E62-B35A-EAAE008DE080}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497F7454-2924-447B-9ECB-7A65E029C4FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHV1_GD" sheetId="7" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="8" r:id="rId2"/>
+    <sheet name="BHV2_GD" sheetId="9" r:id="rId2"/>
+    <sheet name="BHV3_GD" sheetId="10" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="quot_m1">#REF!</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="208">
   <si>
     <t>Celi</t>
   </si>
@@ -564,6 +566,93 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>LeaMu</t>
+  </si>
+  <si>
+    <t>LeaMe</t>
+  </si>
+  <si>
+    <t>Kathi</t>
+  </si>
+  <si>
+    <t>Villach - Brückl hotvolleys</t>
+  </si>
+  <si>
+    <t>L:Stefie:Celi:LeaMe:Celine:Niki:LeaMu</t>
+  </si>
+  <si>
+    <t>L:LeaMu:LeaMe:StefieM:Kathie:Niki:Celine</t>
+  </si>
+  <si>
+    <t>L:LeaMu:LeaMe:StefieM:Kathie:Celi:Celine</t>
+  </si>
+  <si>
+    <t>L:Stefie:Celi:LeaMe:Celine:Kathi:LeaMu</t>
+  </si>
+  <si>
+    <t>l:12:25:7:28:15:23</t>
+  </si>
+  <si>
+    <t>l:23:12:25:7:28:15</t>
+  </si>
+  <si>
+    <t>l:10:23:12:25:7:28</t>
+  </si>
+  <si>
+    <t>16:20:t</t>
+  </si>
+  <si>
+    <t>18:23:t</t>
+  </si>
+  <si>
+    <t>17:20:w:24/15</t>
+  </si>
+  <si>
+    <t>11:14:T</t>
+  </si>
+  <si>
+    <t>23:15:t</t>
+  </si>
+  <si>
+    <t>5:10:t</t>
+  </si>
+  <si>
+    <t>8:16:t</t>
+  </si>
+  <si>
+    <t>13:19:w:24/12</t>
+  </si>
+  <si>
+    <t>13:19:w:26/28</t>
+  </si>
+  <si>
+    <t>5:9:w:37/7</t>
+  </si>
+  <si>
+    <t>8:14:w:10/15</t>
+  </si>
+  <si>
+    <t>19:22:w:12/24</t>
+  </si>
+  <si>
+    <t>19:22:w:28/26</t>
+  </si>
+  <si>
+    <t>19:16:T</t>
+  </si>
+  <si>
+    <t>24:22:T</t>
+  </si>
+  <si>
+    <t>6:14:T</t>
+  </si>
+  <si>
+    <t>16:10:w:6/10</t>
+  </si>
+  <si>
+    <t>6:8:w:6/15</t>
   </si>
 </sst>
 </file>
@@ -676,7 +765,399 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Zelle überprüfen" xfId="1" builtinId="23"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="84">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1210,8 +1691,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AG100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6308,90 +6789,1179 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A85:P98 A46:P55 B13:P13 A9:A16">
-    <cfRule type="expression" dxfId="27" priority="37">
+    <cfRule type="expression" dxfId="83" priority="37">
       <formula>$Q9 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="68">
+    <cfRule type="expression" dxfId="82" priority="68">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="69">
+    <cfRule type="expression" dxfId="81" priority="69">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="70">
+    <cfRule type="expression" dxfId="80" priority="70">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:P79">
-    <cfRule type="expression" dxfId="23" priority="33">
+    <cfRule type="expression" dxfId="79" priority="33">
       <formula>$Q66 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="34">
+    <cfRule type="expression" dxfId="78" priority="34">
       <formula>$Q66 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35">
+    <cfRule type="expression" dxfId="77" priority="35">
       <formula>$Q66 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36">
+    <cfRule type="expression" dxfId="76" priority="36">
       <formula>$Q66 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:P27 B35:P37 B28:P31">
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="75" priority="25">
       <formula>$Q25 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="74" priority="26">
       <formula>$Q25 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="27">
+    <cfRule type="expression" dxfId="73" priority="27">
       <formula>$Q25 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28">
+    <cfRule type="expression" dxfId="72" priority="28">
       <formula>$Q25 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:P34">
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="71" priority="21">
       <formula>$Q32 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="22">
+    <cfRule type="expression" dxfId="70" priority="22">
       <formula>$Q32 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="23">
+    <cfRule type="expression" dxfId="69" priority="23">
       <formula>$Q32 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="68" priority="24">
       <formula>$Q32 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A37">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="67" priority="17">
       <formula>$Q28 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="66" priority="18">
       <formula>$Q28 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="65" priority="19">
       <formula>$Q28 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="64" priority="20">
       <formula>$Q28 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:P16 B9:P12 A5:P7 A8:L8">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="63" priority="13">
       <formula>$Q5 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="15">
+    <cfRule type="expression" dxfId="61" priority="15">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16">
+    <cfRule type="expression" dxfId="60" priority="16">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:P8">
+    <cfRule type="expression" dxfId="59" priority="1">
+      <formula>$Q8 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="2">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="3">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="4">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F1157B-2C89-4830-92D9-F25C36DB7F87}">
+  <dimension ref="A1:AG20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="27" width="3.7109375" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" customWidth="1"/>
+    <col min="29" max="33" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>44129</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:N12" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O12" si="1">M5 - N5</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P12" si="2" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q5">
+        <f>IF(AND(M5 = 0, N5 = 0), 0, IF(P5 &lt; 1, 3, IF(P5 &gt;=$P$12, 1, 2)))</f>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f>IF(AND(M6 = 0, N6 = 0), 0, IF(P6 &lt; 1, 3, IF(P6 &gt;=$P$12, 1, 2)))</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q7">
+        <f>IF(AND(M7 = 0, N7 = 0), 0, IF(P7 &lt; 1, 3, IF(P7 &gt;=$P$12, 1, 2)))</f>
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q8">
+        <f>IF(AND(M8 = 0, N8 = 0), 0, IF(P8 &lt; 1, 3, IF(P8 &gt;=$P$12, 1, 2)))</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>8</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.368421052631579</v>
+      </c>
+      <c r="Q9">
+        <f>IF(AND(M9 = 0, N9 = 0), 0, IF(P9 &lt; 1, 3, IF(P9 &gt;=$P$12, 1, 2)))</f>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>9</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <f>IF(AND(M10 = 0, N10 = 0), 0, IF(P10 &lt; 1, 3, IF(P10 &gt;=$P$12, 1, 2)))</f>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>11</v>
+      </c>
+      <c r="V10">
+        <v>11</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q11">
+        <f>IF(AND(M11 = 0, N11 = 0), 0, IF(P11 &lt; 1, 3, IF(P11 &gt;=$P$12, 1, 2)))</f>
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>11</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>12</v>
+      </c>
+      <c r="V11">
+        <v>15</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>12</v>
+      </c>
+      <c r="AB11">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4">
+        <v>22</v>
+      </c>
+      <c r="H12" s="4">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4">
+        <v>25</v>
+      </c>
+      <c r="J12" s="4">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4">
+        <v>11</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90196078431372551</v>
+      </c>
+      <c r="S12">
+        <v>14</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <v>15</v>
+      </c>
+      <c r="V12">
+        <v>23</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12">
+        <v>8</v>
+      </c>
+      <c r="Y12">
+        <v>8</v>
+      </c>
+      <c r="Z12">
+        <v>14</v>
+      </c>
+      <c r="AA12">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>15</v>
+      </c>
+      <c r="T13">
+        <v>14</v>
+      </c>
+      <c r="V13">
+        <v>25</v>
+      </c>
+      <c r="W13">
+        <v>17</v>
+      </c>
+      <c r="X13">
+        <v>9</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>17</v>
+      </c>
+      <c r="T14">
+        <v>16</v>
+      </c>
+      <c r="W14">
+        <v>18</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <v>18</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>17</v>
+      </c>
+      <c r="W15">
+        <v>19</v>
+      </c>
+      <c r="X15">
+        <v>16</v>
+      </c>
+      <c r="Y15">
+        <v>12</v>
+      </c>
+      <c r="Z15">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>21</v>
+      </c>
+      <c r="T16">
+        <v>18</v>
+      </c>
+      <c r="W16">
+        <v>20</v>
+      </c>
+      <c r="X16">
+        <v>18</v>
+      </c>
+      <c r="Z16">
+        <v>25</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>23</v>
+      </c>
+      <c r="T17">
+        <v>19</v>
+      </c>
+      <c r="W17">
+        <v>21</v>
+      </c>
+      <c r="X17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>25</v>
+      </c>
+      <c r="W18">
+        <v>22</v>
+      </c>
+      <c r="X18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>24</v>
+      </c>
+      <c r="X19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M6:P6 A5:P5 A7:P7 A11">
+    <cfRule type="expression" dxfId="55" priority="13">
+      <formula>$Q5 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="14">
+      <formula>$Q5 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="15">
+      <formula>$Q5 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="16">
+      <formula>$Q5 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:P8">
+    <cfRule type="expression" dxfId="51" priority="37">
+      <formula>$Q8 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="38">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="39">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="40">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:P11 A6:L6">
+    <cfRule type="expression" dxfId="47" priority="17">
+      <formula>$Q6 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="18">
+      <formula>$Q6 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="19">
+      <formula>$Q6 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="20">
+      <formula>$Q6 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A11">
+    <cfRule type="expression" dxfId="15" priority="87">
+      <formula>$Q8 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="88">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="89">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="90">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>$Q7 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$Q7 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$Q7 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$Q7 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$Q8 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$Q8 = 0</formula>
     </cfRule>
@@ -6405,12 +7975,5214 @@
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DADB96C-5D29-4497-BE02-6BE45FDEAC55}">
+  <dimension ref="A1:AG100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="27" width="3.7109375" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" customWidth="1"/>
+    <col min="29" max="33" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>44128</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:N17" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:O17" si="1">M5 - N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P17" si="2" xml:space="preserve"> IF(M5+N5=0, 0, IF(N5=0, "MAX", M5/N5))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>IF(AND(M5 = 0, N5 = 0), 0, IF(P5 &lt; 1, 3, IF(P5 &gt;= P$80, 1, 2)))</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>MAX</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q16" si="3">IF(AND(M7 = 0, N7 = 0), 0, IF(P7 &lt; 1, 3, IF(P7 &gt;= P$80, 1, 2)))</f>
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>9</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>8</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>12</v>
+      </c>
+      <c r="Z9">
+        <v>8</v>
+      </c>
+      <c r="AA9">
+        <v>12</v>
+      </c>
+      <c r="AB9">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>23</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
+        <v>13</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>13</v>
+      </c>
+      <c r="AB10">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>24</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>13</v>
+      </c>
+      <c r="X11">
+        <v>12</v>
+      </c>
+      <c r="Y11">
+        <v>14</v>
+      </c>
+      <c r="Z11">
+        <v>14</v>
+      </c>
+      <c r="AA11">
+        <v>14</v>
+      </c>
+      <c r="AB11">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>25</v>
+      </c>
+      <c r="U12">
+        <v>12</v>
+      </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>14</v>
+      </c>
+      <c r="X12">
+        <v>13</v>
+      </c>
+      <c r="Y12">
+        <v>15</v>
+      </c>
+      <c r="Z12">
+        <v>16</v>
+      </c>
+      <c r="AA12">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>15</v>
+      </c>
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <v>15</v>
+      </c>
+      <c r="X13">
+        <v>14</v>
+      </c>
+      <c r="Y13">
+        <v>16</v>
+      </c>
+      <c r="Z13">
+        <v>18</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>17</v>
+      </c>
+      <c r="V14">
+        <v>17</v>
+      </c>
+      <c r="W14">
+        <v>16</v>
+      </c>
+      <c r="X14">
+        <v>16</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>19</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>19</v>
+      </c>
+      <c r="V15">
+        <v>18</v>
+      </c>
+      <c r="W15">
+        <v>17</v>
+      </c>
+      <c r="X15">
+        <v>17</v>
+      </c>
+      <c r="Y15">
+        <v>21</v>
+      </c>
+      <c r="Z15">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>23</v>
+      </c>
+      <c r="V16">
+        <v>19</v>
+      </c>
+      <c r="W16">
+        <v>18</v>
+      </c>
+      <c r="X16">
+        <v>18</v>
+      </c>
+      <c r="Y16">
+        <v>22</v>
+      </c>
+      <c r="Z16">
+        <v>21</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4">
+        <v>21</v>
+      </c>
+      <c r="G17" s="4">
+        <v>25</v>
+      </c>
+      <c r="H17" s="4">
+        <v>25</v>
+      </c>
+      <c r="I17" s="4">
+        <v>23</v>
+      </c>
+      <c r="J17" s="4">
+        <v>15</v>
+      </c>
+      <c r="K17" s="4">
+        <v>13</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1720430107526882</v>
+      </c>
+      <c r="V17">
+        <v>25</v>
+      </c>
+      <c r="W17">
+        <v>19</v>
+      </c>
+      <c r="X17">
+        <v>20</v>
+      </c>
+      <c r="Y17">
+        <v>23</v>
+      </c>
+      <c r="Z17">
+        <v>22</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>20</v>
+      </c>
+      <c r="X18">
+        <v>22</v>
+      </c>
+      <c r="Y18">
+        <v>25</v>
+      </c>
+      <c r="Z18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="W19">
+        <v>21</v>
+      </c>
+      <c r="X19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>44121</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:N38" si="4" xml:space="preserve"> B25 + D25 + F25 + H25 + J25</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" ref="O25:O38" si="5">M25 - N25</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" ref="P25:P38" si="6" xml:space="preserve"> IF(M25+N25=0, 0, IF(N25=0, "MAX", M25/N25))</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q37" si="7">IF(AND(M25 = 0, N25 = 0), 0, IF(P25 &lt; 1, 3, IF(P25 &gt;= P$80, 1, 2)))</f>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>11</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>5</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>7</v>
+      </c>
+      <c r="U29">
+        <v>19</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>12</v>
+      </c>
+      <c r="T30">
+        <v>8</v>
+      </c>
+      <c r="U30">
+        <v>20</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>14</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <v>23</v>
+      </c>
+      <c r="V31">
+        <v>8</v>
+      </c>
+      <c r="W31">
+        <v>8</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>15</v>
+      </c>
+      <c r="T32">
+        <v>12</v>
+      </c>
+      <c r="U32">
+        <v>24</v>
+      </c>
+      <c r="V32">
+        <v>9</v>
+      </c>
+      <c r="W32">
+        <v>9</v>
+      </c>
+      <c r="X32">
+        <v>9</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:Q34" si="8">IF(AND(M33 = 0, N33 = 0), 0, IF(P33 &lt; 1, 3, IF(P33 &gt;= P$80, 1, 2)))</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>19</v>
+      </c>
+      <c r="T33">
+        <v>15</v>
+      </c>
+      <c r="U33">
+        <v>25</v>
+      </c>
+      <c r="V33">
+        <v>11</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>22</v>
+      </c>
+      <c r="T34">
+        <v>16</v>
+      </c>
+      <c r="W34">
+        <v>15</v>
+      </c>
+      <c r="X34">
+        <v>11</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="6"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>25</v>
+      </c>
+      <c r="W35">
+        <v>17</v>
+      </c>
+      <c r="X35">
+        <v>12</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <v>18</v>
+      </c>
+      <c r="X36">
+        <v>13</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="6"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>20</v>
+      </c>
+      <c r="X37">
+        <v>14</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
+        <v>25</v>
+      </c>
+      <c r="C38" s="4">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4">
+        <v>25</v>
+      </c>
+      <c r="E38" s="4">
+        <v>11</v>
+      </c>
+      <c r="F38" s="4">
+        <v>25</v>
+      </c>
+      <c r="G38" s="4">
+        <v>21</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="6"/>
+        <v>1.5625</v>
+      </c>
+      <c r="W38">
+        <v>21</v>
+      </c>
+      <c r="X38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>22</v>
+      </c>
+      <c r="X39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="W40">
+        <v>23</v>
+      </c>
+      <c r="X40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="W41">
+        <v>24</v>
+      </c>
+      <c r="X41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="W42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>44114</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="10"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46:N56" si="9" xml:space="preserve"> B46 + D46 + F46 + H46 + J46</f>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" ref="O46:O56" si="10">M46 - N46</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" ref="P46:P56" si="11" xml:space="preserve"> IF(M46+N46=0, 0, IF(N46=0, "MAX", M46/N46))</f>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ref="Q46:Q55" si="12">IF(AND(M46 = 0, N46 = 0), 0, IF(P46 &lt; 1, 3, IF(P46 &gt;= P$80, 1, 2)))</f>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="11"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>5</v>
+      </c>
+      <c r="X48">
+        <v>2</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="11"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>7</v>
+      </c>
+      <c r="T49">
+        <v>5</v>
+      </c>
+      <c r="U49">
+        <v>6</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>7</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P50" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>MAX</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>8</v>
+      </c>
+      <c r="T50">
+        <v>6</v>
+      </c>
+      <c r="U50">
+        <v>7</v>
+      </c>
+      <c r="V50">
+        <v>4</v>
+      </c>
+      <c r="W50">
+        <v>9</v>
+      </c>
+      <c r="X50">
+        <v>5</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>9</v>
+      </c>
+      <c r="T51">
+        <v>7</v>
+      </c>
+      <c r="U51">
+        <v>9</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+      <c r="W51">
+        <v>10</v>
+      </c>
+      <c r="X51">
+        <v>6</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <v>10</v>
+      </c>
+      <c r="T52">
+        <v>8</v>
+      </c>
+      <c r="U52">
+        <v>10</v>
+      </c>
+      <c r="V52">
+        <v>6</v>
+      </c>
+      <c r="W52">
+        <v>11</v>
+      </c>
+      <c r="X52">
+        <v>7</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>11</v>
+      </c>
+      <c r="T53">
+        <v>9</v>
+      </c>
+      <c r="U53">
+        <v>11</v>
+      </c>
+      <c r="V53">
+        <v>7</v>
+      </c>
+      <c r="W53">
+        <v>12</v>
+      </c>
+      <c r="X53">
+        <v>10</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P54" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>MAX</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>16</v>
+      </c>
+      <c r="T54">
+        <v>12</v>
+      </c>
+      <c r="U54">
+        <v>12</v>
+      </c>
+      <c r="V54">
+        <v>8</v>
+      </c>
+      <c r="W54">
+        <v>16</v>
+      </c>
+      <c r="X54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>17</v>
+      </c>
+      <c r="T55">
+        <v>13</v>
+      </c>
+      <c r="U55">
+        <v>13</v>
+      </c>
+      <c r="V55">
+        <v>10</v>
+      </c>
+      <c r="W55">
+        <v>18</v>
+      </c>
+      <c r="X55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4">
+        <v>25</v>
+      </c>
+      <c r="C56" s="4">
+        <v>20</v>
+      </c>
+      <c r="D56" s="4">
+        <v>25</v>
+      </c>
+      <c r="E56" s="4">
+        <v>20</v>
+      </c>
+      <c r="F56" s="4">
+        <v>25</v>
+      </c>
+      <c r="G56" s="4">
+        <v>17</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="O56" s="4">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="P56" s="5">
+        <f t="shared" si="11"/>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="S56">
+        <v>18</v>
+      </c>
+      <c r="T56">
+        <v>14</v>
+      </c>
+      <c r="U56">
+        <v>16</v>
+      </c>
+      <c r="V56">
+        <v>11</v>
+      </c>
+      <c r="W56">
+        <v>20</v>
+      </c>
+      <c r="X56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>21</v>
+      </c>
+      <c r="T57">
+        <v>17</v>
+      </c>
+      <c r="U57">
+        <v>17</v>
+      </c>
+      <c r="V57">
+        <v>12</v>
+      </c>
+      <c r="W57">
+        <v>23</v>
+      </c>
+      <c r="X57">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="S58">
+        <v>22</v>
+      </c>
+      <c r="T58">
+        <v>18</v>
+      </c>
+      <c r="U58">
+        <v>18</v>
+      </c>
+      <c r="V58">
+        <v>13</v>
+      </c>
+      <c r="W58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="S59">
+        <v>23</v>
+      </c>
+      <c r="T59">
+        <v>19</v>
+      </c>
+      <c r="U59">
+        <v>20</v>
+      </c>
+      <c r="V59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="S60">
+        <v>24</v>
+      </c>
+      <c r="T60">
+        <v>20</v>
+      </c>
+      <c r="U60">
+        <v>22</v>
+      </c>
+      <c r="V60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>25</v>
+      </c>
+      <c r="U61">
+        <v>25</v>
+      </c>
+      <c r="V61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>44107</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="10"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S65" t="s">
+        <v>3</v>
+      </c>
+      <c r="U65" t="s">
+        <v>4</v>
+      </c>
+      <c r="W65" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ref="M66:N80" si="13" xml:space="preserve"> B66 + D66 + F66 + H66 + J66</f>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" ref="O66:O80" si="14">M66 - N66</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" ref="P66:P80" si="15" xml:space="preserve"> IF(M66+N66=0, 0, IF(N66=0, "MAX", M66/N66))</f>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q78" si="16">IF(AND(M67 = 0, N67 = 0), 0, IF(P67 &lt; 1, 3, IF(P67 &gt;= P$80, 1, 2)))</f>
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>2</v>
+      </c>
+      <c r="Z67">
+        <v>2</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>3</v>
+      </c>
+      <c r="T68">
+        <v>6</v>
+      </c>
+      <c r="U68">
+        <v>7</v>
+      </c>
+      <c r="V68">
+        <v>3</v>
+      </c>
+      <c r="W68">
+        <v>3</v>
+      </c>
+      <c r="X68">
+        <v>2</v>
+      </c>
+      <c r="Y68">
+        <v>4</v>
+      </c>
+      <c r="Z68">
+        <v>3</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>4</v>
+      </c>
+      <c r="T69">
+        <v>7</v>
+      </c>
+      <c r="U69">
+        <v>8</v>
+      </c>
+      <c r="V69">
+        <v>5</v>
+      </c>
+      <c r="W69">
+        <v>4</v>
+      </c>
+      <c r="X69">
+        <v>3</v>
+      </c>
+      <c r="Y69">
+        <v>6</v>
+      </c>
+      <c r="Z69">
+        <v>4</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="14"/>
+        <v>-5</v>
+      </c>
+      <c r="P70" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>6</v>
+      </c>
+      <c r="T70">
+        <v>14</v>
+      </c>
+      <c r="U70">
+        <v>16</v>
+      </c>
+      <c r="V70">
+        <v>6</v>
+      </c>
+      <c r="W70">
+        <v>6</v>
+      </c>
+      <c r="X70">
+        <v>4</v>
+      </c>
+      <c r="Y70">
+        <v>10</v>
+      </c>
+      <c r="Z70">
+        <v>6</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P71" s="3">
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>9</v>
+      </c>
+      <c r="T71">
+        <v>18</v>
+      </c>
+      <c r="U71">
+        <v>18</v>
+      </c>
+      <c r="V71">
+        <v>8</v>
+      </c>
+      <c r="W71">
+        <v>12</v>
+      </c>
+      <c r="X71">
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>11</v>
+      </c>
+      <c r="Z71">
+        <v>7</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P72" s="3">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>14</v>
+      </c>
+      <c r="T72">
+        <v>21</v>
+      </c>
+      <c r="U72">
+        <v>20</v>
+      </c>
+      <c r="V72">
+        <v>10</v>
+      </c>
+      <c r="W72">
+        <v>13</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+      <c r="Y72">
+        <v>17</v>
+      </c>
+      <c r="Z72">
+        <v>8</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>15</v>
+      </c>
+      <c r="T73">
+        <v>22</v>
+      </c>
+      <c r="U73">
+        <v>21</v>
+      </c>
+      <c r="V73">
+        <v>12</v>
+      </c>
+      <c r="W73">
+        <v>15</v>
+      </c>
+      <c r="X73">
+        <v>10</v>
+      </c>
+      <c r="Y73">
+        <v>18</v>
+      </c>
+      <c r="Z73">
+        <v>9</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P74" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>MAX</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>16</v>
+      </c>
+      <c r="T74">
+        <v>25</v>
+      </c>
+      <c r="U74">
+        <v>22</v>
+      </c>
+      <c r="V74">
+        <v>13</v>
+      </c>
+      <c r="W74">
+        <v>21</v>
+      </c>
+      <c r="X74">
+        <v>12</v>
+      </c>
+      <c r="Y74">
+        <v>20</v>
+      </c>
+      <c r="Z74">
+        <v>10</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>23</v>
+      </c>
+      <c r="V75">
+        <v>15</v>
+      </c>
+      <c r="W75">
+        <v>24</v>
+      </c>
+      <c r="X75">
+        <v>13</v>
+      </c>
+      <c r="Y75">
+        <v>23</v>
+      </c>
+      <c r="Z75">
+        <v>11</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>24</v>
+      </c>
+      <c r="V76">
+        <v>16</v>
+      </c>
+      <c r="W76">
+        <v>25</v>
+      </c>
+      <c r="Y76">
+        <v>24</v>
+      </c>
+      <c r="Z76">
+        <v>13</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P77" s="3">
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>25</v>
+      </c>
+      <c r="V77">
+        <v>17</v>
+      </c>
+      <c r="Y77">
+        <v>25</v>
+      </c>
+      <c r="Z77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="P78" s="3">
+        <f t="shared" si="15"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="P79" s="3">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q79">
+        <f>IF(AND(M79 = 0, N79 = 0), 0, IF(P79 &lt; 1, 3, IF(P79 &gt;= P$80, 1, 2)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4">
+        <v>16</v>
+      </c>
+      <c r="C80" s="4">
+        <v>25</v>
+      </c>
+      <c r="D80" s="4">
+        <v>25</v>
+      </c>
+      <c r="E80" s="4">
+        <v>17</v>
+      </c>
+      <c r="F80" s="4">
+        <v>25</v>
+      </c>
+      <c r="G80" s="4">
+        <v>13</v>
+      </c>
+      <c r="H80" s="4">
+        <v>25</v>
+      </c>
+      <c r="I80" s="4">
+        <v>14</v>
+      </c>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+      <c r="N80" s="4">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="O80" s="4">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="P80" s="5">
+        <f t="shared" si="15"/>
+        <v>1.318840579710145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>44100</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="10"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S84" t="s">
+        <v>3</v>
+      </c>
+      <c r="U84" t="s">
+        <v>4</v>
+      </c>
+      <c r="W84" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ref="M85:N99" si="17" xml:space="preserve"> B85 + D85 + F85 + H85 + J85</f>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" ref="O85:O99" si="18">M85 - N85</f>
+        <v>-1</v>
+      </c>
+      <c r="P85" s="3">
+        <f t="shared" ref="P85:P99" si="19" xml:space="preserve"> IF(M85+N85=0, 0, IF(N85=0, "MAX", M85/N85))</f>
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <f>IF(AND(M85 = 0, N85 = 0), 0, IF(P85 &lt; 1, 3, IF(P85 &gt;= P$99, 1, 2)))</f>
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>2</v>
+      </c>
+      <c r="V86">
+        <v>5</v>
+      </c>
+      <c r="W86">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>3</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P87" s="3">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" ref="Q87:Q98" si="20">IF(AND(M87 = 0, N87 = 0), 0, IF(P87 &lt; 1, 3, IF(P87 &gt;= P$99, 1, 2)))</f>
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>7</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87">
+        <v>5</v>
+      </c>
+      <c r="V87">
+        <v>6</v>
+      </c>
+      <c r="W87">
+        <v>2</v>
+      </c>
+      <c r="X87">
+        <v>5</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>8</v>
+      </c>
+      <c r="T88">
+        <v>4</v>
+      </c>
+      <c r="U88">
+        <v>7</v>
+      </c>
+      <c r="V88">
+        <v>7</v>
+      </c>
+      <c r="W88">
+        <v>3</v>
+      </c>
+      <c r="X88">
+        <v>6</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="18"/>
+        <v>-2</v>
+      </c>
+      <c r="P89" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>16</v>
+      </c>
+      <c r="T89">
+        <v>5</v>
+      </c>
+      <c r="U89">
+        <v>9</v>
+      </c>
+      <c r="V89">
+        <v>9</v>
+      </c>
+      <c r="W89">
+        <v>14</v>
+      </c>
+      <c r="X89">
+        <v>9</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="P90" s="3">
+        <f t="shared" si="19"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>17</v>
+      </c>
+      <c r="T90">
+        <v>6</v>
+      </c>
+      <c r="U90">
+        <v>18</v>
+      </c>
+      <c r="V90">
+        <v>10</v>
+      </c>
+      <c r="W90">
+        <v>16</v>
+      </c>
+      <c r="X90">
+        <v>11</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="P91" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>18</v>
+      </c>
+      <c r="T91">
+        <v>7</v>
+      </c>
+      <c r="U91">
+        <v>20</v>
+      </c>
+      <c r="V91">
+        <v>13</v>
+      </c>
+      <c r="W91">
+        <v>17</v>
+      </c>
+      <c r="X91">
+        <v>13</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P92" s="3">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>21</v>
+      </c>
+      <c r="T92">
+        <v>8</v>
+      </c>
+      <c r="U92">
+        <v>21</v>
+      </c>
+      <c r="V92">
+        <v>14</v>
+      </c>
+      <c r="W92">
+        <v>18</v>
+      </c>
+      <c r="X92">
+        <v>15</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>22</v>
+      </c>
+      <c r="T93">
+        <v>9</v>
+      </c>
+      <c r="U93">
+        <v>23</v>
+      </c>
+      <c r="V93">
+        <v>15</v>
+      </c>
+      <c r="W93">
+        <v>21</v>
+      </c>
+      <c r="X93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>23</v>
+      </c>
+      <c r="T94">
+        <v>11</v>
+      </c>
+      <c r="U94">
+        <v>24</v>
+      </c>
+      <c r="V94">
+        <v>17</v>
+      </c>
+      <c r="W94">
+        <v>22</v>
+      </c>
+      <c r="X94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>25</v>
+      </c>
+      <c r="U95">
+        <v>25</v>
+      </c>
+      <c r="V95">
+        <v>18</v>
+      </c>
+      <c r="W95">
+        <v>23</v>
+      </c>
+      <c r="X95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="18"/>
+        <v>-3</v>
+      </c>
+      <c r="P96" s="3">
+        <f t="shared" si="19"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>24</v>
+      </c>
+      <c r="X96">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="W97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4">
+        <v>25</v>
+      </c>
+      <c r="C99" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" s="4">
+        <v>25</v>
+      </c>
+      <c r="E99" s="4">
+        <v>18</v>
+      </c>
+      <c r="F99" s="4">
+        <v>25</v>
+      </c>
+      <c r="G99" s="4">
+        <v>23</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="N99" s="4">
+        <f t="shared" si="17"/>
+        <v>52</v>
+      </c>
+      <c r="O99" s="4">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="P99" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4423076923076923</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P100" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A85:P98 A46:P55 B13:P13 A9:A16">
+    <cfRule type="expression" dxfId="43" priority="25">
+      <formula>$Q9 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="26">
+      <formula>$Q9 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="27">
+      <formula>$Q9 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="28">
+      <formula>$Q9 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:P79">
+    <cfRule type="expression" dxfId="39" priority="21">
+      <formula>$Q66 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="22">
+      <formula>$Q66 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="23">
+      <formula>$Q66 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="24">
+      <formula>$Q66 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:P27 B35:P37 B28:P31">
+    <cfRule type="expression" dxfId="35" priority="17">
+      <formula>$Q25 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="18">
+      <formula>$Q25 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="19">
+      <formula>$Q25 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="20">
+      <formula>$Q25 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:P34">
+    <cfRule type="expression" dxfId="31" priority="13">
+      <formula>$Q32 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="14">
+      <formula>$Q32 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="15">
+      <formula>$Q32 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="16">
+      <formula>$Q32 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A37">
+    <cfRule type="expression" dxfId="27" priority="9">
+      <formula>$Q28 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>$Q28 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="11">
+      <formula>$Q28 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="12">
+      <formula>$Q28 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:P16 B9:P12 A5:P7 A8:L8">
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>$Q5 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>$Q5 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="7">
+      <formula>$Q5 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="8">
+      <formula>$Q5 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:P8">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>$Q8 = 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="2">
+      <formula>$Q8 = 3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>$Q8 = 2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="4">
+      <formula>$Q8 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11216915-10ED-4370-BD94-C6E802C5D48A}">
   <dimension ref="B2:E6"/>
   <sheetViews>

--- a/_work/Statistik-21.xlsx
+++ b/_work/Statistik-21.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E3067-2568-4A10-A7D5-AF1DBC12CCA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8954B-99FC-4E93-BFA8-75BDBBE270B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="345" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="240" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHV1_GD" sheetId="7" r:id="rId1"/>
@@ -9226,8 +9226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DADB96C-5D29-4497-BE02-6BE45FDEAC55}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9386,12 +9386,6 @@
       <c r="A5" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <f t="shared" ref="M5:N14" si="0" xml:space="preserve"> B5 + D5 + F5 + H5 + J5</f>
         <v>0</v>
@@ -9453,21 +9447,9 @@
       <c r="A6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -9475,15 +9457,15 @@
       </c>
       <c r="O6" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>MAX</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f>IF(AND(M6 = 0, N6 = 0), 0, IF(P6 &lt; 1, 3, IF(P6 &gt;=$P$14, 1, 2)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -9541,55 +9523,25 @@
       <c r="A7" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f>IF(AND(M7 = 0, N7 = 0), 0, IF(P7 &lt; 1, 3, IF(P7 &gt;=$P$14, 1, 2)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -9723,47 +9675,17 @@
       <c r="A9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="M9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
@@ -9771,7 +9693,7 @@
       </c>
       <c r="Q9">
         <f>IF(AND(M9 = 0, N9 = 0), 0, IF(P9 &lt; 1, 3, IF(P9 &gt;=$P$14, 1, 2)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>6</v>
@@ -9817,55 +9739,25 @@
       <c r="A10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <f>IF(AND(M10 = 0, N10 = 0), 0, IF(P10 &lt; 1, 3, IF(P10 &gt;=$P$14, 1, 2)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -9911,55 +9803,25 @@
       <c r="A11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <f>IF(AND(M11 = 0, N11 = 0), 0, IF(P11 &lt; 1, 3, IF(P11 &gt;=$P$14, 1, 2)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>9</v>
@@ -9995,18 +9857,6 @@
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>

--- a/_work/Statistik-21.xlsx
+++ b/_work/Statistik-21.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DB551A-067C-48AA-8B38-AD3B4DFCD3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B27874-AD7A-4D6D-BCEF-767FB6128856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHV1_GD" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="280">
   <si>
     <t>Celi</t>
   </si>
@@ -793,21 +793,6 @@
   </si>
   <si>
     <t>2:8:w:44/32</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>Summe</t>
-  </si>
-  <si>
-    <t>Mittelwert</t>
-  </si>
-  <si>
-    <t>Laufende Summe</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
   </si>
   <si>
     <t>ATSC - Brückl hotvolleys</t>
@@ -2120,8 +2105,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AG142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2131,7 @@
         <v>44135</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2321,13 +2306,13 @@
         <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AD5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AE5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -2373,13 +2358,13 @@
         <v>4</v>
       </c>
       <c r="AC6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AD6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AE6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -2443,13 +2428,13 @@
         <v>6</v>
       </c>
       <c r="AC7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AD7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AE7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -2513,13 +2498,13 @@
         <v>11</v>
       </c>
       <c r="AC8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AD8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AE8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -2527,7 +2512,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2539,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2583,13 +2568,13 @@
         <v>13</v>
       </c>
       <c r="AC9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AD9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AE9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -2652,13 +2637,13 @@
         <v>18</v>
       </c>
       <c r="AC10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AD10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AE10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -2710,10 +2695,10 @@
         <v>19</v>
       </c>
       <c r="AD11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AE11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -2759,10 +2744,10 @@
         <v>20</v>
       </c>
       <c r="AD12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AE12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2826,7 +2811,7 @@
         <v>22</v>
       </c>
       <c r="AD13" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -2890,7 +2875,7 @@
         <v>24</v>
       </c>
       <c r="AD14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -3678,7 +3663,7 @@
         <v>11</v>
       </c>
       <c r="AD32" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
@@ -9313,16 +9298,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:P12">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>$Q12 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>$Q12 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>$Q12 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>$Q12 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10318,100 +10303,100 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M6:P6 A5:P5 A7:P7 A11">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="47" priority="13">
       <formula>$Q5 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="14">
+    <cfRule type="expression" dxfId="46" priority="14">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="15">
+    <cfRule type="expression" dxfId="45" priority="15">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="44" priority="16">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:P8">
-    <cfRule type="expression" dxfId="47" priority="37">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>$Q8 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="38">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:P11 A6:L6">
-    <cfRule type="expression" dxfId="43" priority="17">
+    <cfRule type="expression" dxfId="39" priority="17">
       <formula>$Q6 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="18">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>$Q6 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="19">
+    <cfRule type="expression" dxfId="37" priority="19">
       <formula>$Q6 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>$Q6 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A11">
-    <cfRule type="expression" dxfId="39" priority="87">
+    <cfRule type="expression" dxfId="35" priority="87">
       <formula>$Q8 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="88">
+    <cfRule type="expression" dxfId="34" priority="88">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="89">
+    <cfRule type="expression" dxfId="33" priority="89">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="90">
+    <cfRule type="expression" dxfId="32" priority="90">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>$Q7 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>$Q7 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>$Q7 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>$Q7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>$Q8 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$Q8 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10984,7 +10969,7 @@
         <v>247</v>
       </c>
       <c r="AD10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AE10" t="s">
         <v>250</v>
@@ -11281,72 +11266,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:P13 A9:A13">
-    <cfRule type="expression" dxfId="23" priority="33">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula>$Q9 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="34">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula>$Q9 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35">
+    <cfRule type="expression" dxfId="17" priority="35">
       <formula>$Q9 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36">
+    <cfRule type="expression" dxfId="16" priority="36">
       <formula>$Q9 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:P12 A5:P7 A8:L8">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$Q5 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$Q5 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$Q5 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$Q5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:P8">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$Q8 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$Q8 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$Q8 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$Q8 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI12">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$Q20 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$Q20 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$Q20 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$Q20 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI7">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$Q16 = 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$Q16 = 3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$Q16 = 2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$Q16 = 1</formula>
     </cfRule>
   </conditionalFormatting>
